--- a/data/hotels_by_city/Denver/Denver_shard_84.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_84.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d119983-Reviews-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Tech-Ctr-South-Inverness.h119128.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=7480f861-04ed-4bcd-bab4-e14ae45e84dbHWRQ1523490993655&amp;regionId=7838&amp;vip=false&amp;c=5a0737e5-28a4-4554-9171-6ac7cd28ed28&amp;mctc=9&amp;exp_dp=66.49&amp;exp_ts=1523491001573&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,537 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r599002222-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>119983</t>
+  </si>
+  <si>
+    <t>599002222</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>After confirmation, didnt have a room for me, and didn't care</t>
+  </si>
+  <si>
+    <t>Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  
+There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I...Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I TOLD THEM THAT I DID NOT HAVE A ROOM FOR YOU".  (caps to indicate the intensity and disrespect given me by the staff of the hotel that just screwed me)Extended Stay America is definitely off my list of choices that I will be looking at on my next getaway.  I recommend that you do the sameMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  
+There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I...Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I TOLD THEM THAT I DID NOT HAVE A ROOM FOR YOU".  (caps to indicate the intensity and disrespect given me by the staff of the hotel that just screwed me)Extended Stay America is definitely off my list of choices that I will be looking at on my next getaway.  I recommend that you do the sameMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r582744980-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>582744980</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>NO....NO...NO.... ABSOLUTELY NOT!</t>
+  </si>
+  <si>
+    <t>This place is like a dirty, stinking and rowdy dark alley. The place is supposedly no smoking facility but you can smell smoke in your room all the time. You step out of your room and it smells like vagrant. They first gave us a room and when we went in it was like someone was still staying there, the room was dirty, stinky with alcohol bottles all over and cigarette butts in the room. We we're booked for 3 nights prepaid. The front desk guy Danielle gave us another room which was okay. Still the TV hardly had clear picture, they never fixed it after we asked twice. At night this place turns into a bachelor pad and the residents are drunk, loud, slamming doors, so much noise that we stay awake for a few hours in the middle of the night. There is hardly any breakfast available. All the items are gone by 8 am. They have trash under staircases which is overflowing and stinking. We DO NOT recommend this place when if they offer it to you for free. It's a Sham and a scam. STAY AWAY!!!! This review will be responded by a stereotyped corporate apology. Actions speak louder than words. This was the worst experience we ever had in our lives. The room had a terrible stench. They said they have no other rooms available!!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>This place is like a dirty, stinking and rowdy dark alley. The place is supposedly no smoking facility but you can smell smoke in your room all the time. You step out of your room and it smells like vagrant. They first gave us a room and when we went in it was like someone was still staying there, the room was dirty, stinky with alcohol bottles all over and cigarette butts in the room. We we're booked for 3 nights prepaid. The front desk guy Danielle gave us another room which was okay. Still the TV hardly had clear picture, they never fixed it after we asked twice. At night this place turns into a bachelor pad and the residents are drunk, loud, slamming doors, so much noise that we stay awake for a few hours in the middle of the night. There is hardly any breakfast available. All the items are gone by 8 am. They have trash under staircases which is overflowing and stinking. We DO NOT recommend this place when if they offer it to you for free. It's a Sham and a scam. STAY AWAY!!!! This review will be responded by a stereotyped corporate apology. Actions speak louder than words. This was the worst experience we ever had in our lives. The room had a terrible stench. They said they have no other rooms available!!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r560050404-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>560050404</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Josefa was a dream!!! The room, not so much!!!</t>
+  </si>
+  <si>
+    <t>Josefa went above and beyond!! If only I could say the same for the hotel itself  :( The cleanliness was lacking to say the least, we almost threw up from merely opening the drawers throughout the room, in the kitchen, bathroom and bedrooms alike!  Then there's the pathetic excuse for a breakfast that they provided, I've had better on a short airline flight serving a snack only!! My friend stayed at the extended stay right down the street and they had a wonderful breakfast with many options, not just granola bars and instant coffee....MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Josefa went above and beyond!! If only I could say the same for the hotel itself  :( The cleanliness was lacking to say the least, we almost threw up from merely opening the drawers throughout the room, in the kitchen, bathroom and bedrooms alike!  Then there's the pathetic excuse for a breakfast that they provided, I've had better on a short airline flight serving a snack only!! My friend stayed at the extended stay right down the street and they had a wonderful breakfast with many options, not just granola bars and instant coffee....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r504365831-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>504365831</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Ok for a 1 to 2 Night Stay on the way to Airport</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 1 night and was headed to the Denver airport the next day.  This hotel is a good alternative to the pricier hotels nearer to the airport.  The location of it provides easy access to Highway 225 which connects easily to Pena Boulevard leading to the airport.  The rooms however could use a little upgrade.  They are ok and generally clean.  The stairs, landings and corridors could use a good pressure wash.  They were dirty with spilled drinks and the trash cans in the corridors were spilling over with trash.  The hotel provides a "to-go" breakfast, meaning there's breakfast items across from the reception desk but you have to take it to go as there's no where to sit and eat.  There's no coffee maker in the room so you have to go the breakfast area to get coffee.  There are other hotels in around this one so we'll check them out the next time we are in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 1 night and was headed to the Denver airport the next day.  This hotel is a good alternative to the pricier hotels nearer to the airport.  The location of it provides easy access to Highway 225 which connects easily to Pena Boulevard leading to the airport.  The rooms however could use a little upgrade.  They are ok and generally clean.  The stairs, landings and corridors could use a good pressure wash.  They were dirty with spilled drinks and the trash cans in the corridors were spilling over with trash.  The hotel provides a "to-go" breakfast, meaning there's breakfast items across from the reception desk but you have to take it to go as there's no where to sit and eat.  There's no coffee maker in the room so you have to go the breakfast area to get coffee.  There are other hotels in around this one so we'll check them out the next time we are in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r504042316-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>504042316</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Thumping overhead</t>
+  </si>
+  <si>
+    <t>3 stories and I got a 2nd floor room. The thumping overhead started about 900 in the evening and seriously sounded like someone was jumping up and down. Ok here is the good:  pretty clean, full kitchen etc for, well, an extended stay. Bed decently comfortable. Front desk friendly and helpful. The bad.:  the thumping. No shampoo etc. Not ONE glass in the place. The thumping. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>3 stories and I got a 2nd floor room. The thumping overhead started about 900 in the evening and seriously sounded like someone was jumping up and down. Ok here is the good:  pretty clean, full kitchen etc for, well, an extended stay. Bed decently comfortable. Front desk friendly and helpful. The bad.:  the thumping. No shampoo etc. Not ONE glass in the place. The thumping. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r508611545-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>508611545</t>
+  </si>
+  <si>
+    <t>Stay review</t>
+  </si>
+  <si>
+    <t>I had a god reception and directions to mu=y rooms, Rooms were neat and delighted to stay, kitchen facility is also provided. Friendly staff and am very happy to have chosen the hotel to stay for my businessMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>I had a god reception and directions to mu=y rooms, Rooms were neat and delighted to stay, kitchen facility is also provided. Friendly staff and am very happy to have chosen the hotel to stay for my businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r500598021-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>500598021</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>The Staff</t>
+  </si>
+  <si>
+    <t>Some of the best staff encountered at any hotel. Bright Happy Willing to Help. Hard working housekeepers, cheerful front desk staff. Grilling area, close to train, stores. Best Value in area.  Wi-fi could use some upgrading, and available channels should be increased.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Some of the best staff encountered at any hotel. Bright Happy Willing to Help. Hard working housekeepers, cheerful front desk staff. Grilling area, close to train, stores. Best Value in area.  Wi-fi could use some upgrading, and available channels should be increased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r498110038-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>498110038</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Think twice</t>
+  </si>
+  <si>
+    <t>This is a terrible place to stay more than one night. Furniture is very uncomfortable and spiders are plentiful. Room is very tiny. There is no couch or recliner. AC blows directly on the bed going from hot to cold as it goes on and off.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>This is a terrible place to stay more than one night. Furniture is very uncomfortable and spiders are plentiful. Room is very tiny. There is no couch or recliner. AC blows directly on the bed going from hot to cold as it goes on and off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r492911863-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>492911863</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Worked well in Pinch</t>
+  </si>
+  <si>
+    <t>Needed to stay somewhere near our second home while it was being painted.  The location was great and extended Stay America worked for me.  Would definitely use these type of place again in some other locations as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Needed to stay somewhere near our second home while it was being painted.  The location was great and extended Stay America worked for me.  Would definitely use these type of place again in some other locations as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r482477490-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>482477490</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Great choice!</t>
+  </si>
+  <si>
+    <t>I had a brief layover in Denver and found this hotel. I was pleasantly surprised! The rooms are spacious and very comfortable. I got a great nights rest and a cup of coffee on the way to the airport! I'll definitely stay here, again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>I had a brief layover in Denver and found this hotel. I was pleasantly surprised! The rooms are spacious and very comfortable. I got a great nights rest and a cup of coffee on the way to the airport! I'll definitely stay here, again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r470801915-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>470801915</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for.  Smoky, marginally clean, no housekeeping during my stay, unfriendly neighbors.</t>
+  </si>
+  <si>
+    <t>This unit was part of a package deal offered by Priceline, and was one of the cheapest options.Pros:  The design is good, with a small kitchen area, a nice table for working, and an adequate bathroom.  The bed was fine.  The desk crew was friendly enough.Negatives: The folks from the next room smoked just outside, in front of the ventilator input, and angrily refused to stop or move when asked.  The room window was cracked.  The A/C had an old cigarette in it.  The hair dryer intake was packed with dust.  During the week I was there, there was no room service.  The extra-security door latch was falling off the door.I would roughly equate this with a Motel 6.  The appearance was probably better, but the overall experience was similar.  If you can afford it, upgrade.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This unit was part of a package deal offered by Priceline, and was one of the cheapest options.Pros:  The design is good, with a small kitchen area, a nice table for working, and an adequate bathroom.  The bed was fine.  The desk crew was friendly enough.Negatives: The folks from the next room smoked just outside, in front of the ventilator input, and angrily refused to stop or move when asked.  The room window was cracked.  The A/C had an old cigarette in it.  The hair dryer intake was packed with dust.  During the week I was there, there was no room service.  The extra-security door latch was falling off the door.I would roughly equate this with a Motel 6.  The appearance was probably better, but the overall experience was similar.  If you can afford it, upgrade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r452167725-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>452167725</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>My Stay Improved After I Changed Rooms</t>
+  </si>
+  <si>
+    <t>Very much your typical extended stay: Staff Overloaded with duties, inconsistency with room quality and or amenities, yet another phone without a cord or buttons. Shower/Water/Drain issues. ESA Corp needs to step up their game and consider a network wide rebrand. They need to be more involved with the properties and they need to quit short staffing to save money. Thankfully I was able to change rooms or this would have received a lower overall rating. Staff was assisting, average service, nothing outstanding. I stay at ESA as a last resort but I'd give this location a second chance. I find it pointless to even fill out the review requests from ESA Corp. - totally pointless.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Very much your typical extended stay: Staff Overloaded with duties, inconsistency with room quality and or amenities, yet another phone without a cord or buttons. Shower/Water/Drain issues. ESA Corp needs to step up their game and consider a network wide rebrand. They need to be more involved with the properties and they need to quit short staffing to save money. Thankfully I was able to change rooms or this would have received a lower overall rating. Staff was assisting, average service, nothing outstanding. I stay at ESA as a last resort but I'd give this location a second chance. I find it pointless to even fill out the review requests from ESA Corp. - totally pointless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r429862971-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>429862971</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>pleasant location</t>
+  </si>
+  <si>
+    <t>stay a week here for work and enjoyed it. we stayed at another extended stay previously so we are kind of familiar with the chain. the front desk guy was really nice and accommodating. although the front desk girl was really sassy when i asked simple questions about why i wasn't able to connect to the internet. room and bathroom was clean and nice. front desk had utensils if needed. the bed was nice and comfortable. it was a good stay in a nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>stay a week here for work and enjoyed it. we stayed at another extended stay previously so we are kind of familiar with the chain. the front desk guy was really nice and accommodating. although the front desk girl was really sassy when i asked simple questions about why i wasn't able to connect to the internet. room and bathroom was clean and nice. front desk had utensils if needed. the bed was nice and comfortable. it was a good stay in a nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r420550992-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>420550992</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>This place is Great!!!!</t>
+  </si>
+  <si>
+    <t>My boyfriend and our 2 dogs have been living here for the last year and a half and have seen dramatic improvements.... Every room has been fully updated with brand new paint, flooring, and furniture... Even the toilets are brand new!!! The upkeep on the grounds has also greatly improved... I mean they were scrubbing the stairwells and hallways all day yesterday... Keeping them clean and spotless. Also the staff is friendly and very accommodating to our needs. Give this place a chance... It's really pretty great!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>My boyfriend and our 2 dogs have been living here for the last year and a half and have seen dramatic improvements.... Every room has been fully updated with brand new paint, flooring, and furniture... Even the toilets are brand new!!! The upkeep on the grounds has also greatly improved... I mean they were scrubbing the stairwells and hallways all day yesterday... Keeping them clean and spotless. Also the staff is friendly and very accommodating to our needs. Give this place a chance... It's really pretty great!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r411880956-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>411880956</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>VERY POOR VALUE</t>
+  </si>
+  <si>
+    <t>Terrible cable package, lousy wifi connection, and good luck having your weekly room cleaning done right.....if at all. Then there is the fun of wondering if your room key is dead again or not. Real fun if you're coming back late in the evening. You don't "get what you pay for" with Extended stay properties which is tantamount to theft in my opinion. If you enjoy getting "ripped off", this is the place for you.....</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r383114883-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>383114883</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Nice refresh, but more housekeeping needed.</t>
+  </si>
+  <si>
+    <t>This is a two-story motel that appears to be on the tail end of a renovation.
+Pros:
+My room had fresh paint, new floor covering and some new fixtures.  It had modern colors and fresh cozy feel.  I particularly liked the sprayed coating on the porcelain tile in the shower.
+ I believe this room was referred to as a Queen studio. It was fairly small but had a good use of space. I was able to park 10 feet from my door.
+The air conditioner cooled well and was not obnoxiously loud.
+It was quiet and I felt safe.
+Cons:
+When I stepped out of my car upon arrival I was immediately met with a strong chemical smell. There are some wet paint signs around but this actually smelled like an insecticide.  We will give them the benefit of the doubt. I didn't notice this smell very much when I first entered my room but during the night after the air conditioner had been running a long time it became quite noticeable and I was slightly concerned for my health.  UPDATE:  I have since found that the strong paint smell was on the staircase immediately outside my door. It's some kind of special floor paint as it is on the steps in the stairwell so that is probably why I didn't recognize the smell.
+The bed sheets and shower had hair from a previous visit. I did not address this...This is a two-story motel that appears to be on the tail end of a renovation.Pros:My room had fresh paint, new floor covering and some new fixtures.  It had modern colors and fresh cozy feel.  I particularly liked the sprayed coating on the porcelain tile in the shower. I believe this room was referred to as a Queen studio. It was fairly small but had a good use of space. I was able to park 10 feet from my door.The air conditioner cooled well and was not obnoxiously loud.It was quiet and I felt safe.Cons:When I stepped out of my car upon arrival I was immediately met with a strong chemical smell. There are some wet paint signs around but this actually smelled like an insecticide.  We will give them the benefit of the doubt. I didn't notice this smell very much when I first entered my room but during the night after the air conditioner had been running a long time it became quite noticeable and I was slightly concerned for my health.  UPDATE:  I have since found that the strong paint smell was on the staircase immediately outside my door. It's some kind of special floor paint as it is on the steps in the stairwell so that is probably why I didn't recognize the smell.The bed sheets and shower had hair from a previous visit. I did not address this with the hotel staff as I've learned to just carry a sleeping bag to use on the bed in these cases.The room lacked clothes hangers and the sheer window curtain. If you open the main curtain for light you could come face-to-face with passersby.The fluorescent tube light fixtures in bathroom and kitchen we're exposed having no shade.  Bathroom exhaust fan was loud.Summary:Overall I like this place. This was my first stay as I found my regular lodging full. Hopefully next time they will be finished painting and perhaps have improved their housekeeping.(All pictures are post stay except for the hair on the sheet.  The long curly hair in the shower hd been camouflaged on the painted shower wall, but fell down before the photo.  There was other hair in the shower.)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is a two-story motel that appears to be on the tail end of a renovation.
+Pros:
+My room had fresh paint, new floor covering and some new fixtures.  It had modern colors and fresh cozy feel.  I particularly liked the sprayed coating on the porcelain tile in the shower.
+ I believe this room was referred to as a Queen studio. It was fairly small but had a good use of space. I was able to park 10 feet from my door.
+The air conditioner cooled well and was not obnoxiously loud.
+It was quiet and I felt safe.
+Cons:
+When I stepped out of my car upon arrival I was immediately met with a strong chemical smell. There are some wet paint signs around but this actually smelled like an insecticide.  We will give them the benefit of the doubt. I didn't notice this smell very much when I first entered my room but during the night after the air conditioner had been running a long time it became quite noticeable and I was slightly concerned for my health.  UPDATE:  I have since found that the strong paint smell was on the staircase immediately outside my door. It's some kind of special floor paint as it is on the steps in the stairwell so that is probably why I didn't recognize the smell.
+The bed sheets and shower had hair from a previous visit. I did not address this...This is a two-story motel that appears to be on the tail end of a renovation.Pros:My room had fresh paint, new floor covering and some new fixtures.  It had modern colors and fresh cozy feel.  I particularly liked the sprayed coating on the porcelain tile in the shower. I believe this room was referred to as a Queen studio. It was fairly small but had a good use of space. I was able to park 10 feet from my door.The air conditioner cooled well and was not obnoxiously loud.It was quiet and I felt safe.Cons:When I stepped out of my car upon arrival I was immediately met with a strong chemical smell. There are some wet paint signs around but this actually smelled like an insecticide.  We will give them the benefit of the doubt. I didn't notice this smell very much when I first entered my room but during the night after the air conditioner had been running a long time it became quite noticeable and I was slightly concerned for my health.  UPDATE:  I have since found that the strong paint smell was on the staircase immediately outside my door. It's some kind of special floor paint as it is on the steps in the stairwell so that is probably why I didn't recognize the smell.The bed sheets and shower had hair from a previous visit. I did not address this with the hotel staff as I've learned to just carry a sleeping bag to use on the bed in these cases.The room lacked clothes hangers and the sheer window curtain. If you open the main curtain for light you could come face-to-face with passersby.The fluorescent tube light fixtures in bathroom and kitchen we're exposed having no shade.  Bathroom exhaust fan was loud.Summary:Overall I like this place. This was my first stay as I found my regular lodging full. Hopefully next time they will be finished painting and perhaps have improved their housekeeping.(All pictures are post stay except for the hair on the sheet.  The long curly hair in the shower hd been camouflaged on the painted shower wall, but fell down before the photo.  There was other hair in the shower.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r376522508-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>376522508</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Worst, don't stay!!!</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in, and I have traveled alot and stayed in wide range of hotels. We stayed here for about 4 months, My children have found drug pipes and needles in the parking lot, the grounds are not kept, trash and bottles everywhere. The cleaning crew do not clean the rooms very well, we had friends check in and there daughter found a heroine pipe in there cleaned room, the cleaning people didn't even come to our room for about 5 weeks straight and ask if we needed anything. Besides Larry, the other staff are rude and snappy when you ask or report anything. Due to staff neglect, guests get hurt. If you have a problem the staff tell you to call corporate, and when you call corporate they do nothing, don't document, or return calls. It took me calling for over 5 weeks to finally peak with someone, all you get is the run around! Corporate will tell you different things about the rates and programs and how they work to lock in your price but the price continues to go up, started out at 1,100, first month, second month went to 1,300., third month went to 1,900. And the forth month was over 2,000. All while we were supposed to be in the EPP program with locked rate at 1,100. A month. They even harass you, they harassed my husband to...This is the worst hotel I have ever stayed in, and I have traveled alot and stayed in wide range of hotels. We stayed here for about 4 months, My children have found drug pipes and needles in the parking lot, the grounds are not kept, trash and bottles everywhere. The cleaning crew do not clean the rooms very well, we had friends check in and there daughter found a heroine pipe in there cleaned room, the cleaning people didn't even come to our room for about 5 weeks straight and ask if we needed anything. Besides Larry, the other staff are rude and snappy when you ask or report anything. Due to staff neglect, guests get hurt. If you have a problem the staff tell you to call corporate, and when you call corporate they do nothing, don't document, or return calls. It took me calling for over 5 weeks to finally peak with someone, all you get is the run around! Corporate will tell you different things about the rates and programs and how they work to lock in your price but the price continues to go up, started out at 1,100, first month, second month went to 1,300., third month went to 1,900. And the forth month was over 2,000. All while we were supposed to be in the EPP program with locked rate at 1,100. A month. They even harass you, they harassed my husband to pay our bill at another hotel (that we had never been to) and our bill wasn't even due for another 2 weeks, then when they realized they made a mistake they never apologized. The rooms are not stocked with anything like they advertise, and thier breakfast is a joke. We also paid a $300 non refundable (supposed to be one time fee) pet deposit when we arrived and now they say we have to start paying an extra $50 a month for our pets, but from day one you c I uldnt walk across the floor barefooted without your feet turning black. I could continue to list everything else that is wrong with this hotel but this thing is not long enough. So I will just leave you with this, if you have ANY other option other then this hotel, I promise you it will be better than this place!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in, and I have traveled alot and stayed in wide range of hotels. We stayed here for about 4 months, My children have found drug pipes and needles in the parking lot, the grounds are not kept, trash and bottles everywhere. The cleaning crew do not clean the rooms very well, we had friends check in and there daughter found a heroine pipe in there cleaned room, the cleaning people didn't even come to our room for about 5 weeks straight and ask if we needed anything. Besides Larry, the other staff are rude and snappy when you ask or report anything. Due to staff neglect, guests get hurt. If you have a problem the staff tell you to call corporate, and when you call corporate they do nothing, don't document, or return calls. It took me calling for over 5 weeks to finally peak with someone, all you get is the run around! Corporate will tell you different things about the rates and programs and how they work to lock in your price but the price continues to go up, started out at 1,100, first month, second month went to 1,300., third month went to 1,900. And the forth month was over 2,000. All while we were supposed to be in the EPP program with locked rate at 1,100. A month. They even harass you, they harassed my husband to...This is the worst hotel I have ever stayed in, and I have traveled alot and stayed in wide range of hotels. We stayed here for about 4 months, My children have found drug pipes and needles in the parking lot, the grounds are not kept, trash and bottles everywhere. The cleaning crew do not clean the rooms very well, we had friends check in and there daughter found a heroine pipe in there cleaned room, the cleaning people didn't even come to our room for about 5 weeks straight and ask if we needed anything. Besides Larry, the other staff are rude and snappy when you ask or report anything. Due to staff neglect, guests get hurt. If you have a problem the staff tell you to call corporate, and when you call corporate they do nothing, don't document, or return calls. It took me calling for over 5 weeks to finally peak with someone, all you get is the run around! Corporate will tell you different things about the rates and programs and how they work to lock in your price but the price continues to go up, started out at 1,100, first month, second month went to 1,300., third month went to 1,900. And the forth month was over 2,000. All while we were supposed to be in the EPP program with locked rate at 1,100. A month. They even harass you, they harassed my husband to pay our bill at another hotel (that we had never been to) and our bill wasn't even due for another 2 weeks, then when they realized they made a mistake they never apologized. The rooms are not stocked with anything like they advertise, and thier breakfast is a joke. We also paid a $300 non refundable (supposed to be one time fee) pet deposit when we arrived and now they say we have to start paying an extra $50 a month for our pets, but from day one you c I uldnt walk across the floor barefooted without your feet turning black. I could continue to list everything else that is wrong with this hotel but this thing is not long enough. So I will just leave you with this, if you have ANY other option other then this hotel, I promise you it will be better than this place!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r374968673-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374968673</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for several months</t>
+  </si>
+  <si>
+    <t>Facility and staff are terrific. We were guests here for a very extended stay and the staff is always very helpful and attentive. Excellent interim home with great care for our family.Very highly recommended!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r360425899-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>360425899</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel For A Long Stay.</t>
+  </si>
+  <si>
+    <t>This hotel is great for staying with your family for long periods. We moved here from Florida for my husband new job and needed a play to stay quickly that was safe for our children, this hotel is perfect for that. This hotel is clean, the staff is friendly, especially Larry who is always willing to go above and beyond to help with a SMILE! This is my first stay at an Extended Stay, I am grateful so far it's going well. (I am not an employee of the hotel.)</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r353078874-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>353078874</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Ronnie King</t>
+  </si>
+  <si>
+    <t>This was my first stay at Extended Stay America. Although it was for only one night, my business forces me to stay in hotels over 200 nights per year. If this hotel was in every city that I do business in I would stay here exclusively. I was a little nervous initially but once I arrived I was surprised by my initial contact with the hotel staff. Josefa, Daniel, Toni and Larry all contributed to making this stay memorable. I did not read these reviews before making the reservation as I wanted to make my own opinion. I already knew the area would insure the safety that I expected. The room was PERFECT. The bed and bedding made for a perfect sleep. The technology was seamless and although I did not use the kitchen, the extra space made the room even more comfortable. Lots of restaurants, and every other service is right in the neighborhood so if you are in the area for business this is the BEST location. Would I stay at this hotel and location again? A B S O L U T E L Y.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first stay at Extended Stay America. Although it was for only one night, my business forces me to stay in hotels over 200 nights per year. If this hotel was in every city that I do business in I would stay here exclusively. I was a little nervous initially but once I arrived I was surprised by my initial contact with the hotel staff. Josefa, Daniel, Toni and Larry all contributed to making this stay memorable. I did not read these reviews before making the reservation as I wanted to make my own opinion. I already knew the area would insure the safety that I expected. The room was PERFECT. The bed and bedding made for a perfect sleep. The technology was seamless and although I did not use the kitchen, the extra space made the room even more comfortable. Lots of restaurants, and every other service is right in the neighborhood so if you are in the area for business this is the BEST location. Would I stay at this hotel and location again? A B S O L U T E L Y.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r349820683-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>349820683</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Good hotel to stay with family</t>
+  </si>
+  <si>
+    <t>Staff is very good. They are helpful. You get a kitchen n utensils to cook food if you are bored wth outside food. Really good restaurants nearby just walkin distance. Prices are veru affordable. Recommended</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1069,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1101,1420 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_84.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_84.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>STR#</t>
   </si>
@@ -147,16 +147,130 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r608651615-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>119983</t>
+  </si>
+  <si>
+    <t>608651615</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Fancy Roach Motel</t>
+  </si>
+  <si>
+    <t>If you want to stay at a hotel that has terrible service, disgusting rooms, and smoke free rooms that reek of stale smoke - this place is for you! Upon arrival, we were greeted with the glare from an employee behind the counter, was hurriedly checked in although there were no others waiting. From my understanding there is no breakfast area and only a small table that has a few breakfast items you can take before heading out the door. As we made our way to our room, we had the privilege to find a used toilet plunger stuffed in a plastic bag sitting near the rooms on the sidewalk, cigarette buds and empty beer bottles scattered everywhere going up to our room. Getting into our room, the fantastic aroma of stale cigarettes greeted our senses, although we requested a smoke free room. Going into the bathroom it was well stocked with two shampoos, zero soap, no conditioner or lotion and a half used toilet paper roll with no others to replace it. The tub did not drain well at all; on the bright side, they actually had warm water. If you are staying for long term, I suggest to take your business elsewhere, considering they charge an extra fee for housekeeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>If you want to stay at a hotel that has terrible service, disgusting rooms, and smoke free rooms that reek of stale smoke - this place is for you! Upon arrival, we were greeted with the glare from an employee behind the counter, was hurriedly checked in although there were no others waiting. From my understanding there is no breakfast area and only a small table that has a few breakfast items you can take before heading out the door. As we made our way to our room, we had the privilege to find a used toilet plunger stuffed in a plastic bag sitting near the rooms on the sidewalk, cigarette buds and empty beer bottles scattered everywhere going up to our room. Getting into our room, the fantastic aroma of stale cigarettes greeted our senses, although we requested a smoke free room. Going into the bathroom it was well stocked with two shampoos, zero soap, no conditioner or lotion and a half used toilet paper roll with no others to replace it. The tub did not drain well at all; on the bright side, they actually had warm water. If you are staying for long term, I suggest to take your business elsewhere, considering they charge an extra fee for housekeeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r567330748-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>567330748</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>excellent customer service. refrigerator stopped working. They immediately provided another refrigerator, when I ran out of bathroom items, they immediately supplied them. I stayed 13 weeks. The staff was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>excellent customer service. refrigerator stopped working. They immediately provided another refrigerator, when I ran out of bathroom items, they immediately supplied them. I stayed 13 weeks. The staff was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r602647056-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>602647056</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Disgusting, Dirty, Frightening Property; Were We Staying at Government-subsidized Work-release Facility?</t>
+  </si>
+  <si>
+    <t>We booked three nights via Priceline. I know Denver and this area, and figured it was at least in a decent location. Plus, we've stayed at Extended Stay America properties before. After checkin, it took us 15 minutes of driving around the property, getting out of the car and going up and down stairs to find our room. You can't read the room numbers from the parking areas — not even on the first floor when you park right in front of the room. The entire property is poorly lit. During our search for our room, we got to see guests hanging out and being loud in different rooms (doors open) or in the parking lot — all men. There were overflowing trash cans under all of the stairwells, Now, the room. First, the property is not only supposed to be 100% smoke-free, they even have you sign a statement on your registration form saying you accept this, that there's no smoking within 100 feet of any doorway, and you agree to a steep fee ( $200 or $250) if you do smoke and they have to clean the room. People, of course, were or had been smoking in the stairwells (butts here and there). Absolutely the worst part of the adventure was that when we finally entered our room not only was it dank and as stark and depressing as a Soviet prison cell, it had such a heavy...We booked three nights via Priceline. I know Denver and this area, and figured it was at least in a decent location. Plus, we've stayed at Extended Stay America properties before. After checkin, it took us 15 minutes of driving around the property, getting out of the car and going up and down stairs to find our room. You can't read the room numbers from the parking areas — not even on the first floor when you park right in front of the room. The entire property is poorly lit. During our search for our room, we got to see guests hanging out and being loud in different rooms (doors open) or in the parking lot — all men. There were overflowing trash cans under all of the stairwells, Now, the room. First, the property is not only supposed to be 100% smoke-free, they even have you sign a statement on your registration form saying you accept this, that there's no smoking within 100 feet of any doorway, and you agree to a steep fee ( $200 or $250) if you do smoke and they have to clean the room. People, of course, were or had been smoking in the stairwells (butts here and there). Absolutely the worst part of the adventure was that when we finally entered our room not only was it dank and as stark and depressing as a Soviet prison cell, it had such a heavy odor and feel of smoke that my partner — who has a heart condition — felt it in her chest immediately. We turned around and left, got in the car and found a nice La Quinta very nearby at good price. We didn't even want to stick around to complain at the front desk; we'd already paid in advance on Priceline anyway.The only good part of this stay was that when I called the front desk from the La Quinta to tell her about our decision (based on the smoke in the room), she was at least cordial, said, "OK," didn't try to book us into another room, and said she'd return the payment to Priceline. When I (immediately after that) called Priceline to get a refund from them, they called the hotel and confirmed she agreed to the refund. So, at least we get our money back.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We booked three nights via Priceline. I know Denver and this area, and figured it was at least in a decent location. Plus, we've stayed at Extended Stay America properties before. After checkin, it took us 15 minutes of driving around the property, getting out of the car and going up and down stairs to find our room. You can't read the room numbers from the parking areas — not even on the first floor when you park right in front of the room. The entire property is poorly lit. During our search for our room, we got to see guests hanging out and being loud in different rooms (doors open) or in the parking lot — all men. There were overflowing trash cans under all of the stairwells, Now, the room. First, the property is not only supposed to be 100% smoke-free, they even have you sign a statement on your registration form saying you accept this, that there's no smoking within 100 feet of any doorway, and you agree to a steep fee ( $200 or $250) if you do smoke and they have to clean the room. People, of course, were or had been smoking in the stairwells (butts here and there). Absolutely the worst part of the adventure was that when we finally entered our room not only was it dank and as stark and depressing as a Soviet prison cell, it had such a heavy...We booked three nights via Priceline. I know Denver and this area, and figured it was at least in a decent location. Plus, we've stayed at Extended Stay America properties before. After checkin, it took us 15 minutes of driving around the property, getting out of the car and going up and down stairs to find our room. You can't read the room numbers from the parking areas — not even on the first floor when you park right in front of the room. The entire property is poorly lit. During our search for our room, we got to see guests hanging out and being loud in different rooms (doors open) or in the parking lot — all men. There were overflowing trash cans under all of the stairwells, Now, the room. First, the property is not only supposed to be 100% smoke-free, they even have you sign a statement on your registration form saying you accept this, that there's no smoking within 100 feet of any doorway, and you agree to a steep fee ( $200 or $250) if you do smoke and they have to clean the room. People, of course, were or had been smoking in the stairwells (butts here and there). Absolutely the worst part of the adventure was that when we finally entered our room not only was it dank and as stark and depressing as a Soviet prison cell, it had such a heavy odor and feel of smoke that my partner — who has a heart condition — felt it in her chest immediately. We turned around and left, got in the car and found a nice La Quinta very nearby at good price. We didn't even want to stick around to complain at the front desk; we'd already paid in advance on Priceline anyway.The only good part of this stay was that when I called the front desk from the La Quinta to tell her about our decision (based on the smoke in the room), she was at least cordial, said, "OK," didn't try to book us into another room, and said she'd return the payment to Priceline. When I (immediately after that) called Priceline to get a refund from them, they called the hotel and confirmed she agreed to the refund. So, at least we get our money back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r601786824-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>601786824</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Personally confirmed and inspected the type of room we desired 2 weeks before arrival of my kids only to be disappointed</t>
+  </si>
+  <si>
+    <t>Not a great experience for my family after a long trip to e disappointed at the room assigned. We booked and inspected the room desired with number of beds two weeks earlier. On arrival date, wrong room with a queen bed was assigned. The front desk Clerk was unapologetic/rude and his manager on phone with him was not helpful requesting me to pay more. My money was not refunded a while back to my credit card. Not a customer friendly environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Not a great experience for my family after a long trip to e disappointed at the room assigned. We booked and inspected the room desired with number of beds two weeks earlier. On arrival date, wrong room with a queen bed was assigned. The front desk Clerk was unapologetic/rude and his manager on phone with him was not helpful requesting me to pay more. My money was not refunded a while back to my credit card. Not a customer friendly environment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r599002222-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
-  </si>
-  <si>
-    <t>33412</t>
-  </si>
-  <si>
-    <t>119983</t>
   </si>
   <si>
     <t>599002222</t>
@@ -172,16 +286,13 @@
 There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I...Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  There was some confusion when I called the third party, trying to find a hotel in the proper direction of my travel.  I was on hold for so long, I ended up just driving to the Extended stay to make sure.  I was fronted by a surly desk guy, who told me in an angry voice, that he had just spoken with the third party and "I TOLD THEM THAT I DID NOT HAVE A ROOM FOR YOU".  (caps to indicate the intensity and disrespect given me by the staff of the hotel that just screwed me)Extended Stay America is definitely off my list of choices that I will be looking at on my next getaway.  I recommend that you do the sameMoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
   </si>
   <si>
     <t>Hard to review since I saw only the parking lot and office.  I made my booking through a third party booking agent, received a definite confirmation of my room.  I received a call from the third party booking telling me that Extended Stay America was rescinding their booking, saying that they didn't have a room for me.  That was about 4:00 on the day of the booking.  Extended stay didn't try to find me another room at another of their properties, simply, "BYE".  I was engaged in an activity when I received the call telling me about being booted by Extended Stay, so I couldn't hear well, couldn't understand well the operator (accent).  She did say that she found me another hotel room, unfortunately 8 miles in the wrong direction along a highway under construction.  Not ideal, very frustrating and tension inducing, (not fun on a two day getaway).  The new hotel, a Hilton Garden Inn was very accommodating and saved the day from the callousness and frustration of dealing with Extended stay.  
@@ -236,9 +347,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded February 13, 2018</t>
   </si>
   <si>
@@ -248,6 +356,60 @@
     <t>Josefa went above and beyond!! If only I could say the same for the hotel itself  :( The cleanliness was lacking to say the least, we almost threw up from merely opening the drawers throughout the room, in the kitchen, bathroom and bedrooms alike!  Then there's the pathetic excuse for a breakfast that they provided, I've had better on a short airline flight serving a snack only!! My friend stayed at the extended stay right down the street and they had a wonderful breakfast with many options, not just granola bars and instant coffee....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r509024743-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>509024743</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Priceline bad decision</t>
+  </si>
+  <si>
+    <t>Room nasty and not clean. Smells that kept me up all night. Things fell off the wall. Noise level horrible at all hours.Will not stay at extended stay ever again. This chain stinks all across the US. I have tried several.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Room nasty and not clean. Smells that kept me up all night. Things fell off the wall. Noise level horrible at all hours.Will not stay at extended stay ever again. This chain stinks all across the US. I have tried several.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r505180603-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>505180603</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Best Extended Stay in DTC</t>
+  </si>
+  <si>
+    <t>All the staff at this property is awesome and truly helpful with anything and everything. Daniel the GM goes out of his way to make sure his guests are satisfied. All front desk associates as well. Thanks MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>All the staff at this property is awesome and truly helpful with anything and everything. Daniel the GM goes out of his way to make sure his guests are satisfied. All front desk associates as well. Thanks More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r504365831-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -263,9 +425,6 @@
     <t>We stayed at this hotel for 1 night and was headed to the Denver airport the next day.  This hotel is a good alternative to the pricier hotels nearer to the airport.  The location of it provides easy access to Highway 225 which connects easily to Pena Boulevard leading to the airport.  The rooms however could use a little upgrade.  They are ok and generally clean.  The stairs, landings and corridors could use a good pressure wash.  They were dirty with spilled drinks and the trash cans in the corridors were spilling over with trash.  The hotel provides a "to-go" breakfast, meaning there's breakfast items across from the reception desk but you have to take it to go as there's no where to sit and eat.  There's no coffee maker in the room so you have to go the breakfast area to get coffee.  There are other hotels in around this one so we'll check them out the next time we are in Denver.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 22, 2017</t>
   </si>
   <si>
@@ -311,21 +470,57 @@
     <t>I had a god reception and directions to mu=y rooms, Rooms were neat and delighted to stay, kitchen facility is also provided. Friendly staff and am very happy to have chosen the hotel to stay for my businessMoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded August 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 6, 2017</t>
-  </si>
-  <si>
     <t>I had a god reception and directions to mu=y rooms, Rooms were neat and delighted to stay, kitchen facility is also provided. Friendly staff and am very happy to have chosen the hotel to stay for my businessMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r501774977-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>501774977</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Very good staff.</t>
+  </si>
+  <si>
+    <t>Very good staff. Unfortunately it doesn't appear the ownership is spending any money on maintenance of the property.  The first room I was assigned smelled like pet urine and fryed food. After complaining to the very helpful staff I was given a new room that smelled like cigarettes. Both rooms had many stains on the floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Very good staff. Unfortunately it doesn't appear the ownership is spending any money on maintenance of the property.  The first room I was assigned smelled like pet urine and fryed food. After complaining to the very helpful staff I was given a new room that smelled like cigarettes. Both rooms had many stains on the floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r501366963-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>501366963</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Extended service in abundance</t>
+  </si>
+  <si>
+    <t>Lei, the lead at the front desk, went well over and beyond the call of duty. Her knowledge and work ethic dworfs that of a mortal man. She went as far as to assist me (6'-0 225lbs) with my abundant luggage. Grabbing some of the heavier items while stating "im not a delicate flower") and bounded off for the lobby where i was waiting for a ride. With great customer service and smiles for miles, the Extended Stay Denver Tech Center on Geddes Street, is a sid 5 stars.I thank you for making my stay truely exceptional.Edward BrownCEO Brown Marketing LLCMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Lei, the lead at the front desk, went well over and beyond the call of duty. Her knowledge and work ethic dworfs that of a mortal man. She went as far as to assist me (6'-0 225lbs) with my abundant luggage. Grabbing some of the heavier items while stating "im not a delicate flower") and bounded off for the lobby where i was waiting for a ride. With great customer service and smiles for miles, the Extended Stay Denver Tech Center on Geddes Street, is a sid 5 stars.I thank you for making my stay truely exceptional.Edward BrownCEO Brown Marketing LLCMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r500598021-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -401,6 +596,57 @@
     <t>Needed to stay somewhere near our second home while it was being painted.  The location was great and extended Stay America worked for me.  Would definitely use these type of place again in some other locations as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r491638694-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>491638694</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Very poor service and accommodation.</t>
+  </si>
+  <si>
+    <t>Poor service, dirty room, hair and dirt on top of surfaces on floor and in bathtub, only thing clean was the bed linens or I would have left, phone out of order.  Parking lot being repaved without prior notice and no parking in front of the room.  When I checked in an attendant was calling to notify future guests about possible parking issues due to repaving but I was not notified MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Poor service, dirty room, hair and dirt on top of surfaces on floor and in bathtub, only thing clean was the bed linens or I would have left, phone out of order.  Parking lot being repaved without prior notice and no parking in front of the room.  When I checked in an attendant was calling to notify future guests about possible parking issues due to repaving but I was not notified More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r490523868-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>490523868</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Nice facility with a friendly staff, technology is horrible out of date with erratic &amp; slow internet &amp; subpar TV</t>
+  </si>
+  <si>
+    <t>The facilities were nice, excellent location, except for technologies, everything worked.Horrible internet and poorly maintained TV service - when Denver was have terrible storms, like hail &amp; flooding, the weather channel was out that month, several channels were no longer programmed correctly so you either got non-stop DISH ads, or a caption that the previous channel has changed, so you need to call service, which is a joke, no one comes.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>The facilities were nice, excellent location, except for technologies, everything worked.Horrible internet and poorly maintained TV service - when Denver was have terrible storms, like hail &amp; flooding, the weather channel was out that month, several channels were no longer programmed correctly so you either got non-stop DISH ads, or a caption that the previous channel has changed, so you need to call service, which is a joke, no one comes.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r482477490-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -476,6 +722,57 @@
     <t>Very much your typical extended stay: Staff Overloaded with duties, inconsistency with room quality and or amenities, yet another phone without a cord or buttons. Shower/Water/Drain issues. ESA Corp needs to step up their game and consider a network wide rebrand. They need to be more involved with the properties and they need to quit short staffing to save money. Thankfully I was able to change rooms or this would have received a lower overall rating. Staff was assisting, average service, nothing outstanding. I stay at ESA as a last resort but I'd give this location a second chance. I find it pointless to even fill out the review requests from ESA Corp. - totally pointless.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r447562871-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>447562871</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Great staff and property</t>
+  </si>
+  <si>
+    <t>The service at this hotel was absolutely the best I've encountered. The friendly staff memebers become fast friends here, and they really put their best effort into making your stay happy and comfortable. My family is very pleased with the awesome service and lovely rooms. (Daniel, Josepha, Leigh, Larry, Walt, Vicky, Camien and several others have really made a differnce in making our stay enjoyable!)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>The service at this hotel was absolutely the best I've encountered. The friendly staff memebers become fast friends here, and they really put their best effort into making your stay happy and comfortable. My family is very pleased with the awesome service and lovely rooms. (Daniel, Josepha, Leigh, Larry, Walt, Vicky, Camien and several others have really made a differnce in making our stay enjoyable!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r431646992-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>431646992</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Friendly stay</t>
+  </si>
+  <si>
+    <t>Very nice staff...go above and beyond to take care of me. Cozy home like atmosphere. All of the staff address my partner and I as if we belong to a community. We are doing an extended stay for 6 months..all of our needs were addressed and was given a very good rate. We appreciate the service and care the staff has shown us.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Very nice staff...go above and beyond to take care of me. Cozy home like atmosphere. All of the staff address my partner and I as if we belong to a community. We are doing an extended stay for 6 months..all of our needs were addressed and was given a very good rate. We appreciate the service and care the staff has shown us.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r429862971-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -491,15 +788,6 @@
     <t>stay a week here for work and enjoyed it. we stayed at another extended stay previously so we are kind of familiar with the chain. the front desk guy was really nice and accommodating. although the front desk girl was really sassy when i asked simple questions about why i wasn't able to connect to the internet. room and bathroom was clean and nice. front desk had utensils if needed. the bed was nice and comfortable. it was a good stay in a nice place.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded November 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 7, 2016</t>
-  </si>
-  <si>
     <t>stay a week here for work and enjoyed it. we stayed at another extended stay previously so we are kind of familiar with the chain. the front desk guy was really nice and accommodating. although the front desk girl was really sassy when i asked simple questions about why i wasn't able to connect to the internet. room and bathroom was clean and nice. front desk had utensils if needed. the bed was nice and comfortable. it was a good stay in a nice place.More</t>
   </si>
   <si>
@@ -546,6 +834,45 @@
   </si>
   <si>
     <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r409005663-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>409005663</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Noisey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you like being able to get your sleep, don't stay here. They have a lot of problems with guest complaining about noise. Even though everyone here signs a statement that says quiet time is at 10:00pm.We are still staying here and have complained everyday with nothing being done. DO NOT STAY HERE. The office will tell you it is a cultural problem. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r400091258-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>400091258</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courteous and friendly front desk personnel </t>
+  </si>
+  <si>
+    <t>Attended concert at Fiddlers Green. Looked for a place economical and convenient. Found both here. Received what we expected for what we paid. The awesome staff was a pleasant bonus. We stayed one night Ina Saturday and found the quiet hours were observed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center South - Inverness, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Attended concert at Fiddlers Green. Looked for a place economical and convenient. Found both here. Received what we expected for what we paid. The awesome staff was a pleasant bonus. We stayed one night Ina Saturday and found the quiet hours were observed. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r383114883-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
@@ -624,6 +951,36 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r374661583-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374661583</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Mr Donnie Bell</t>
+  </si>
+  <si>
+    <t>The staff is very Friendly and courteous. Rooms are very clean. Fresh coffee every morning!!! I would stay here every time. Excellent housekeeping staff clean Fresh towels. They really take pride in what they do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r372708187-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>372708187</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 weeks while waiting for my new apartment to be ready. No hot water in shower, Poor quality bed. No room service for 2 weeks. Poor quality TV channel line up. Hardly any available parking. Trash piled up in stair wells. Poor choices for breakfast. This has to be the worst hotel I have ever stayed at.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r360425899-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
   </si>
   <si>
@@ -676,6 +1033,24 @@
   </si>
   <si>
     <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d119983-r349544335-Extended_Stay_America_Denver_Tech_Center_South_Inverness-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>349544335</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>How would you feel?</t>
+  </si>
+  <si>
+    <t>How would you feel about a WWF wrestling match going on in the room above you pretty much all the time day and night? This was my experience at this hotel and no amount of complaint to the staff- including a call to the regional manager ever resolved the horrible conditions. Even though I had a King Suite, I was forced to purchase a separate room for my family who was visiting from out of state because getting them a good nights rest in my room was out of the question. BEWARE</t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
 </sst>
 </file>
@@ -1220,14 +1595,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1275,7 +1646,7 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -1285,10 +1656,14 @@
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1336,41 +1711,37 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
         <v>1</v>
       </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1386,7 +1757,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1395,53 +1766,47 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1457,7 +1822,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1466,32 +1831,36 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1530,50 +1899,40 @@
         <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1589,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1598,25 +1957,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1625,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1638,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1660,7 +2019,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1669,22 +2028,22 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
         <v>62</v>
@@ -1696,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1709,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1731,7 +2090,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1740,53 +2099,53 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -1802,7 +2161,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1811,43 +2170,53 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1863,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1872,49 +2241,43 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -1930,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1939,10 +2302,10 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -1951,33 +2314,41 @@
         <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -1993,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2002,32 +2373,38 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
         <v>153</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>154</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>155</v>
       </c>
-      <c r="L14" t="s">
-        <v>156</v>
-      </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
       <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>4</v>
@@ -2036,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
         <v>158</v>
-      </c>
-      <c r="X14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2058,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2067,22 +2444,22 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>163</v>
-      </c>
-      <c r="K15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" t="s">
-        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
         <v>62</v>
@@ -2097,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -2119,7 +2496,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2128,43 +2505,51 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
         <v>171</v>
       </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>172</v>
+      </c>
+      <c r="X16" t="s">
+        <v>173</v>
+      </c>
       <c r="Y16" t="s">
         <v>174</v>
       </c>
@@ -2182,7 +2567,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2191,37 +2576,51 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
         <v>177</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>178</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>179</v>
       </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
       <c r="Y17" t="s">
         <v>182</v>
       </c>
@@ -2260,27 +2659,41 @@
         <v>187</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
         <v>188</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -2296,7 +2709,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2305,45 +2718,53 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
       <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -2359,7 +2780,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2368,39 +2789,49 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -2416,7 +2847,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2425,25 +2856,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2454,10 +2885,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
       <c r="Y21" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -2473,7 +2908,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2482,39 +2917,1076 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>224</v>
+      </c>
+      <c r="X22" t="s">
+        <v>225</v>
+      </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>278</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" t="s">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s">
+        <v>303</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>304</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+      <c r="J34" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>308</v>
+      </c>
+      <c r="L34" t="s">
+        <v>309</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>312</v>
+      </c>
+      <c r="K35" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>297</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s">
+        <v>319</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35139</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
